--- a/biology/Zoologie/Chien_fer/Chien_fer.xlsx
+++ b/biology/Zoologie/Chien_fer/Chien_fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien fer en français ou chyen fè en créole martiniquais est un chien nu, sans poil originaire de la Martinique.  
 Il a des caractéristiques proches de celles du chien nu mexicain.
 La présence de ces chiens nus est attestée dans les Caraïbes, notamment en 1492 dans le journal de Christophe Colomb[réf. nécessaire].
 Il est devenu assez rare.
 Il est assez mal considéré dans la culture créole, comparé à un « chien d'enfer »
-« chien-fè chien-a-ï-en, chien payen »[1] ; mais il est cependant réputé éloigner les Esprits[2]. 
+« chien-fè chien-a-ï-en, chien payen » ; mais il est cependant réputé éloigner les Esprits. 
 </t>
         </is>
       </c>
